--- a/biology/Écologie/Pont_terrestre/Pont_terrestre.xlsx
+++ b/biology/Écologie/Pont_terrestre/Pont_terrestre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un pont terrestre ou pont de terre, en biogéographie, est un isthme ou une large bande de terre entre deux zones qui seraient autrement séparées, ce qui permet aux animaux terrestres et aux plantes de traverser et de coloniser de nouvelles terres. Les ponts terrestres peuvent être créés par une régression marine dans laquelle le niveau des mers baisse, faisant apparaitre des portions du plateau continental peu profondes, qui étaient légèrement submergées ou lorsque de la terre émerge par la tectonique des plaques, ou parfois lorsque le plancher de la mer remonte à cause du rebond post-glaciaire, après une période glaciaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Principaux exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les principaux exemples sont :
 Le pont terrestre de Béring, qui reliait l'Asie par intermittence à l'Amérique du Nord, suivant que le niveau de la mer montait ou descendait sous l'effet du poids de la glace ;
@@ -547,10 +561,12 @@
           <t>Théorie du pont terrestre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au XIXe siècle, un certain nombre de scientifiques ont noté d'énigmatiques similitudes géologiques et zoologiques entre des zones très éloignées. Pour résoudre ces problèmes, « ... chaque fois que les géologues et les paléontologues n'ont pas d'explication pour les similitudes transocéaniques évidentes de vie qu'ils ont constaté lors de leurs découvertes de gisements de fossiles, ils aiguisent leurs crayons et esquissent des ponts terrestres entre les continents appropriés »[1]. Le concept a été d'abord proposé par Jules Marcou dans les « Lettres sur les roches du Jura »[2]. 
-Ces ponts terrestres hypothétiques sont les suivants[3] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XIXe siècle, un certain nombre de scientifiques ont noté d'énigmatiques similitudes géologiques et zoologiques entre des zones très éloignées. Pour résoudre ces problèmes, « ... chaque fois que les géologues et les paléontologues n'ont pas d'explication pour les similitudes transocéaniques évidentes de vie qu'ils ont constaté lors de leurs découvertes de gisements de fossiles, ils aiguisent leurs crayons et esquissent des ponts terrestres entre les continents appropriés ». Le concept a été d'abord proposé par Jules Marcou dans les « Lettres sur les roches du Jura ». 
+Ces ponts terrestres hypothétiques sont les suivants : 
 Lémurie dans l'océan Indien ;
 Archiboreis dans l'Atlantique Nord ;
 Archatlantis des Antilles à l'Afrique du Nord ;
